--- a/medicine/Enfance/Luc_Tesson/Luc_Tesson.xlsx
+++ b/medicine/Enfance/Luc_Tesson/Luc_Tesson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Luc Tesson est un illustrateur, dessinateur de presse et auteur jeunesse français, né en 1976.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Luc Tesson a publié, aux Éditions du Cerf, divers recueils dont Un ange passe et Le Bonheur. Dessinateur de presse, sa collaboration régulière avec Courrier Cadre fait de lui un partenaire de la communication des entreprises (Merck, La Poste, SNCF…). Il collabore à diverses revues dont Ombres et Lumière, de nombreux journaux internes ou syndicaux. Depuis 2005 il anime des congrès en assurant des prestations de dessin en direct (Société Générale, Lactalis, EDF, GDF, Airbus, Dassault, Michelin…).
 Selon des styles différents, il a pu travailler pour la presse professionnelle comme Courrier Cadre, tandis que selon un style plus classique il a travaillé pour les éditions Eyrolles, Lamartinière ou encore le Cerf. Selon les publics, il adapte son trait à la petite enfance et varie son vocabulaire graphique pour se rapprocher au plus près de ses lecteurs.
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Un ange passe , Éditions du Cerf, 2005.
 Le Bonheur, Éditions du Cerf, 2005.
